--- a/Documents/datainput.xlsx
+++ b/Documents/datainput.xlsx
@@ -14,14 +14,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t xml:space="preserve">Country:</t>
   </si>
@@ -32,6 +32,13 @@
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial 
+(y = partial)</t>
+  </si>
+  <si>
     <t xml:space="preserve">From</t>
   </si>
   <si>
@@ -44,6 +51,114 @@
     <t xml:space="preserve">Sources</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st to 9th grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary/Vocational/High schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face cover/mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatherings large groups banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatherings medium groups banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;500 and &gt; 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatherings small groups banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody has to stay home except buying food, medical reasons, work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock in, Approval needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody has to stay home except buying food, medical reasons, work.&lt;br /&gt; Paper/Digital pass needed when leaving the house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-essential shops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-essential shops/services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border/Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarantine after return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People have to go into quarantine when entering the country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International flights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International trains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public transport cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public transport national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bars/Pubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure/Culture/Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clubs/concerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museums/Libraries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary schools closed</t>
   </si>
   <si>
@@ -65,46 +180,25 @@
     <t xml:space="preserve">Secondary/Vocational schools open with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Universities closed</t>
   </si>
   <si>
     <t xml:space="preserve">Universities open with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Face cover/mask</t>
-  </si>
-  <si>
     <t xml:space="preserve">Face cover/mask (specific areas)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gatherings large groups banned</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;&amp;gt;500&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Gatherings medium groups banned</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;&amp;lt;500 and &amp;gt;10&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Gatherings small groups banned</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;&amp;lt;10&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Lock In</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;Everybody has to stay home except buying food, medical reasons, work&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock in, Approval needed</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Everybody has to stay home except buying food, medical reasons, work.&lt;br /&gt; Paper/Digital pass needed when leaving the house.&lt;/p&gt;</t>
@@ -160,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,11 +277,71 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,17 +350,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -217,7 +428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,51 +452,93 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -297,7 +550,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -313,7 +566,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -339,6 +592,862 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2358720" y="11541600"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11704320"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11866680"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12029400"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12191760"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12354480"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12516840"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12679560"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12841920"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13004640"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13167360"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13329720"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13492440"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13654800"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13817520"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13979880"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14142600"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14304960"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14467680"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14630400"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14792760"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14955480"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="162360"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -352,7 +1461,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -378,27 +1487,27 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="162360"/>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="487440"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -426,7 +1535,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="25" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -436,43 +1545,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="325080"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="487440"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -500,7 +1572,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="26" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -537,7 +1609,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="27" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -574,7 +1646,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="28" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -611,7 +1683,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="29" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -648,7 +1720,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="30" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -685,7 +1757,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="31" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -722,7 +1794,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="32" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -759,7 +1831,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="33" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -769,6 +1841,43 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="1788120"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>221760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="2113200"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -796,7 +1905,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="35" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -806,43 +1915,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="1950480"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>221760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="2113200"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,7 +1942,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="36" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -907,7 +1979,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="37" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -944,7 +2016,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="38" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -981,7 +2053,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="39" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1018,7 +2090,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="40" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1055,7 +2127,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="41" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1092,7 +2164,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="42" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1129,7 +2201,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="43" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1166,7 +2238,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="44" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1203,7 +2275,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="45" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1240,7 +2312,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="46" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1270,295 +2342,329 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A37" type="list">
-      <formula1>'Measure Types'!$A$1:$A$26</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1580,216 +2686,216 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Documents/datainput.xlsx
+++ b/Documents/datainput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t xml:space="preserve">Country:</t>
   </si>
@@ -111,12 +111,12 @@
     <t xml:space="preserve">Business</t>
   </si>
   <si>
+    <t xml:space="preserve">All shops except Pharmacies, Food.  Document other exceptions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restaurants</t>
   </si>
   <si>
-    <t xml:space="preserve">Semi-essential shops/services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Border</t>
   </si>
   <si>
@@ -156,7 +156,10 @@
     <t xml:space="preserve">Hotels</t>
   </si>
   <si>
-    <t xml:space="preserve">Museums/Libraries</t>
+    <t xml:space="preserve">Museums/Libraries/Zoos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And similar public institutions</t>
   </si>
   <si>
     <t xml:space="preserve">Primary schools closed</t>
@@ -254,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,12 +331,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Lohit Devanagari"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,27 +472,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,14 +591,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,6 +612,80 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358720" y="11541600"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11704320"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11866680"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -632,26 +703,63 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12029400"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="11704320"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12191760"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -668,27 +776,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="11866680"/>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12354480"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -705,27 +813,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12029400"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12516840"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -742,27 +850,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12191760"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12679560"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -779,27 +887,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12354480"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12841920"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -816,27 +924,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12516840"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13004640"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -853,27 +961,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12679560"/>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13167360"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -890,27 +998,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12841920"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13329720"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -927,27 +1035,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13004640"/>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13492440"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -964,27 +1072,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13167360"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13654800"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1001,27 +1109,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13329720"/>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13817520"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,27 +1146,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13492440"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13979880"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1075,27 +1183,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13654800"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14142600"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1112,27 +1220,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13817520"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14304960"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1149,27 +1257,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13979880"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14467680"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1186,27 +1294,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14142600"/>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14630400"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1223,27 +1331,27 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14304960"/>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14792760"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1260,125 +1368,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14467680"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14630400"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14792760"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,12 +2339,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2440,7 +2437,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2510,11 +2507,13 @@
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>28</v>
@@ -2524,45 +2523,45 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>36</v>
@@ -2574,7 +2573,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -2586,7 +2585,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -2596,12 +2595,12 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -2610,7 +2609,7 @@
     </row>
     <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>41</v>
@@ -2622,7 +2621,7 @@
     </row>
     <row r="24" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>41</v>
@@ -2632,9 +2631,9 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>41</v>
@@ -2642,19 +2641,9 @@
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2686,31 +2675,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -2718,7 +2707,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2726,7 +2715,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2742,7 +2731,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -2753,7 +2742,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2758,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2766,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,12 +2774,12 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -2798,7 +2787,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2806,7 +2795,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -2814,15 +2803,15 @@
     </row>
     <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>14</v>
@@ -2830,7 +2819,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -2838,7 +2827,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>14</v>
@@ -2846,7 +2835,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>14</v>
@@ -2854,7 +2843,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -2862,7 +2851,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>14</v>
@@ -2870,7 +2859,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
@@ -2878,7 +2867,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -2886,7 +2875,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/datainput.xlsx
+++ b/Documents/datainput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t xml:space="preserve">Country:</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t xml:space="preserve">Border/Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial: in general border open but with restrictions (certain nationalities not allowed to enter, border to certain neighbours closed)
+Full: Full closure with exceptions</t>
   </si>
   <si>
     <t xml:space="preserve">Quarantine after return</t>
@@ -589,29 +593,140 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11704320"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2358720" y="11541600"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2358720" y="11541600"/>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12029400"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="11866680"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -629,26 +744,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="11704320"/>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12191760"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -666,26 +781,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="11866680"/>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12354480"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -703,26 +818,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12029400"/>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12516840"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -740,26 +855,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12191760"/>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12679560"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -777,26 +892,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12354480"/>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="12841920"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,26 +929,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12516840"/>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13004640"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -851,26 +966,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12679560"/>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13167360"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -888,26 +1003,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12841920"/>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13329720"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -925,26 +1040,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13004640"/>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13492440"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,26 +1077,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13167360"/>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13654800"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -999,26 +1114,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13329720"/>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13817520"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,26 +1151,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13492440"/>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="13979880"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1073,26 +1188,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13654800"/>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14142600"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1110,26 +1225,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13817520"/>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14304960"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1147,26 +1262,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13979880"/>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14467680"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1184,26 +1299,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14142600"/>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14630400"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1221,26 +1336,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14304960"/>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171600" y="14792760"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1258,124 +1373,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14467680"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14630400"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14792760"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1408,6 +1412,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625400" y="0"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1421,7 +1462,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1445,29 +1486,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1625400" y="0"/>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="325080"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1495,7 +1536,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="25" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1505,43 +1546,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="487440"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="325080"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1854,6 +1858,43 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>229320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="1950480"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
@@ -1865,7 +1906,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="35" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1875,43 +1916,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="2113200"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="1950480"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2342,9 +2346,9 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,7 +2358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2523,7 +2527,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2533,26 +2537,28 @@
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
@@ -2561,10 +2567,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -2573,10 +2579,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2585,10 +2591,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -2597,10 +2603,10 @@
     </row>
     <row r="22" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -2609,10 +2615,10 @@
     </row>
     <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
@@ -2621,10 +2627,10 @@
     </row>
     <row r="24" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -2633,16 +2639,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2675,31 +2681,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2715,7 +2721,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2731,7 +2737,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -2742,7 +2748,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2764,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2772,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,12 +2780,12 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -2787,7 +2793,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2795,7 +2801,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -2803,15 +2809,15 @@
     </row>
     <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>14</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -2827,7 +2833,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>14</v>
@@ -2835,7 +2841,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>14</v>
@@ -2843,7 +2849,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>14</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
@@ -2867,7 +2873,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -2875,7 +2881,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/datainput.xlsx
+++ b/Documents/datainput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
   <si>
     <t xml:space="preserve">Country:</t>
   </si>
@@ -48,15 +48,27 @@
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
+    <t xml:space="preserve">Explanation </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sources</t>
   </si>
   <si>
+    <t xml:space="preserve">Child/Day care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only outside school</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary schools</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">1st to 9th grade</t>
   </si>
   <si>
@@ -75,22 +87,11 @@
     <t xml:space="preserve">Public space</t>
   </si>
   <si>
-    <t xml:space="preserve">Gatherings large groups banned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatherings medium groups banned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;500 and &gt; 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatherings small groups banned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;=10</t>
+    <t xml:space="preserve">Gathering restricions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrictions on how many people are allowed together in public.
+Partial: &gt;10 allowed</t>
   </si>
   <si>
     <t xml:space="preserve">Lock In</t>
@@ -114,7 +115,11 @@
     <t xml:space="preserve">All shops except Pharmacies, Food.  Document other exceptions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurants</t>
+    <t xml:space="preserve">Restaurants/Bars/Pubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial: outside areas open, max. people per table restrictions etc
+Full: closed (except delivery/take away)</t>
   </si>
   <si>
     <t xml:space="preserve">Border</t>
@@ -130,7 +135,8 @@
     <t xml:space="preserve">Quarantine after return</t>
   </si>
   <si>
-    <t xml:space="preserve">People have to go into quarantine when entering the country.</t>
+    <t xml:space="preserve">People have to go into quarantine when entering the country.
+Partial: only when coming from certain countries/regions</t>
   </si>
   <si>
     <t xml:space="preserve">International flights</t>
@@ -148,13 +154,13 @@
     <t xml:space="preserve">Public transport national</t>
   </si>
   <si>
-    <t xml:space="preserve">Bars/Pubs</t>
+    <t xml:space="preserve">Clubs/concerts</t>
   </si>
   <si>
     <t xml:space="preserve">Leisure/Culture/Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">Clubs/concerts</t>
+    <t xml:space="preserve">Cinema/theatres</t>
   </si>
   <si>
     <t xml:space="preserve">Hotels</t>
@@ -196,10 +202,19 @@
     <t xml:space="preserve">Face cover/mask (specific areas)</t>
   </si>
   <si>
+    <t xml:space="preserve">Gatherings large groups banned</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;&amp;gt;500&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Gatherings medium groups banned</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;&amp;lt;500 and &amp;gt;10&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatherings small groups banned</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;&amp;lt;10&lt;/p&gt;</t>
@@ -259,7 +274,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -471,7 +486,7 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,11 +503,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,16 +624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,44 +646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171600" y="11704320"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2358720" y="11541600"/>
+          <a:off x="2438280" y="162360"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -668,751 +662,6 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12029400"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="11866680"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12191760"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12354480"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12516840"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12679560"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="12841920"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13004640"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13167360"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13329720"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13492440"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13654800"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13817520"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="13979880"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14142600"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14304960"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14467680"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14630400"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14792760"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171600" y="14955480"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1425,7 +674,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1451,18 +700,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1471,7 +720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="162360"/>
+          <a:off x="2438280" y="487440"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1499,7 +748,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1525,43 +774,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="487440"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
@@ -1573,7 +785,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="4" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1610,7 +822,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="5" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1647,7 +859,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="6" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1684,7 +896,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="7" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1721,7 +933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="8" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1758,7 +970,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="9" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1795,7 +1007,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="10" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1832,7 +1044,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="11" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1858,6 +1070,43 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>221760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438280" y="2113200"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>229320</xdr:rowOff>
     </xdr:from>
@@ -1869,7 +1118,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="13" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1896,43 +1145,6 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>221760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="2113200"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
       <xdr:rowOff>251280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1943,7 +1155,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="14" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1980,7 +1192,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="15" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2017,7 +1229,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="16" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2054,7 +1266,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="17" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2091,7 +1303,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="18" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2128,7 +1340,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="19" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2165,7 +1377,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="20" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2202,7 +1414,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="21" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2239,7 +1451,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="22" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2276,7 +1488,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="23" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2313,7 +1525,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="24" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2343,12 +1555,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:AMJ44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2356,10 +1568,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="36.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2394,262 +1607,699 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" s="6" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="H25" s="4"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="B41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2659,7 +2309,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2681,207 +2330,207 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
+      <c r="B12" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
+      <c r="B13" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/datainput.xlsx
+++ b/Documents/datainput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="80">
   <si>
     <t xml:space="preserve">Country:</t>
   </si>
@@ -97,13 +97,12 @@
     <t xml:space="preserve">Lock In</t>
   </si>
   <si>
-    <t xml:space="preserve">Everybody has to stay home except buying food, medical reasons, work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock in, Approval needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everybody has to stay home except buying food, medical reasons, work.&lt;br /&gt; Paper/Digital pass needed when leaving the house.</t>
+    <t xml:space="preserve">Everybody HAS to stay home except buying food, medical reasons, work
+Full: Document needed (Paper/digital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody has to stay home except buying food, medical reasons, work
+Full: Document needed (Paper/digital)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-essential shops</t>
@@ -221,6 +220,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Everybody has to stay home except buying food, medical reasons, work&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock in, Approval needed</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Everybody has to stay home except buying food, medical reasons, work.&lt;br /&gt; Paper/Digital pass needed when leaving the house.&lt;/p&gt;</t>
@@ -624,6 +626,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed=""/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625400" y="0"/>
+          <a:ext cx="132840" cy="132840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -637,7 +676,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -661,20 +700,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -683,7 +722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1625400" y="0"/>
+          <a:off x="2438280" y="325080"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -711,7 +750,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
+        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -721,43 +760,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="487440"/>
-          <a:ext cx="132840" cy="132840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="https://www.coronameasures.ch/static/admin/img/icon-yes.d2f9f035226a.svg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438280" y="325080"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1070,14 +1072,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>221760</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,7 +1092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="2113200"/>
+          <a:off x="2438280" y="1950480"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1107,14 +1109,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>132840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>221760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,7 +1129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="1950480"/>
+          <a:off x="2438280" y="2113200"/>
           <a:ext cx="132840" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1555,12 +1557,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ44"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,7 +1682,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1695,9 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1782,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1816,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1842,50 +1846,54 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>12</v>
@@ -1896,16 +1904,16 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1914,16 +1922,16 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="6" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>12</v>
@@ -1934,16 +1942,17 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1952,89 +1961,84 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" s="6" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="AMJ25" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="B28" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -2049,10 +2053,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2068,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -2086,7 +2090,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2097,12 +2101,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>12</v>
@@ -2120,7 +2124,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2131,12 +2135,12 @@
       <c r="G34" s="8"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="57.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -2149,12 +2153,12 @@
       <c r="G35" s="8"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2167,34 +2171,30 @@
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7"/>
@@ -2204,13 +2204,15 @@
         <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7"/>
@@ -2220,11 +2222,13 @@
         <v>44</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7"/>
@@ -2234,7 +2238,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>12</v>
@@ -2244,7 +2248,9 @@
         <v>18</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2258,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2260,46 +2266,10 @@
         <v>18</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2330,31 +2300,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
@@ -2362,7 +2332,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>18</v>
@@ -2370,7 +2340,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>18</v>
@@ -2386,7 +2356,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>18</v>
@@ -2394,26 +2364,26 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,12 +2391,12 @@
         <v>23</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>65</v>
